--- a/jpcore-r4/feature/swg5-fix_medication_request_authoredon/ValueSet-jp-procedure-codes-ichi-vs.xlsx
+++ b/jpcore-r4/feature/swg5-fix_medication_request_authoredon/ValueSet-jp-procedure-codes-ichi-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-07T16:04:19+00:00</t>
+    <t>2022-07-08T08:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
